--- a/results_curr/DT/125Hz_3classes/res_hyperopt.xlsx
+++ b/results_curr/DT/125Hz_3classes/res_hyperopt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit_curr\results_curr\DT\125Hz_3classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42496130-E04A-4987-9378-690E725DB23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252D122A-6842-4113-9DAC-291DC45D9516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>load</t>
   </si>
@@ -53,121 +53,136 @@
     <t>R1</t>
   </si>
   <si>
-    <t>{'max_depth': 60, 'max_features': 0.13789101811113885, 'min_samples_split': 0.41709730042880355, 'min_weight_fraction_leaf': 0.010977468133823998}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 1.0}</t>
+    <t>{'max_depth': 5, 'max_features': 0.17875165998712045, 'min_samples_split': 0.3890799201738608, 'min_weight_fraction_leaf': 0.08039885619244191}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.0, 'max_75_125': 0.0}</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>{'max_depth': 92, 'max_features': 0.7045832252016859, 'min_samples_split': 0.0007666237055734066, 'min_weight_fraction_leaf': 0.08475979510946302}</t>
+    <t>{'max_depth': 64, 'max_features': 0.6890330317736596, 'min_samples_split': 0.21035738554563735, 'min_weight_fraction_leaf': 0.09145298733013285}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.633}</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>{'max_depth': 77, 'max_features': 0.9016702116304326, 'min_samples_split': 0.3193713385156975, 'min_weight_fraction_leaf': 0.24259515753901262}</t>
-  </si>
-  <si>
-    <t>{'mean_25_75': 0.27, 'std_class_25_75': 0.246, 'std_class_75_125': 0.146, 'min_10_25': 0.077, 'min_10_50': 0.069, 'kurt_10_50': 0.06, 'std_class_10_50': 0.054, 'max_25_75': 0.045, 'mean_75_125': 0.035}</t>
+    <t>{'max_depth': 13, 'max_features': 0.9854345611314294, 'min_samples_split': 0.371012080124947, 'min_weight_fraction_leaf': 0.2398306582051783}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.535, 'std_class_10_50': 0.0, 'mean_25_75': 0.0}</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>{'max_depth': 4, 'max_features': 0.7454471511193931, 'min_samples_split': 0.16997031680592303, 'min_weight_fraction_leaf': 0.21259156358325132}</t>
-  </si>
-  <si>
-    <t>{'min_75_125': 1.0}</t>
+    <t>{'max_depth': 23, 'max_features': 0.5643850268012695, 'min_samples_split': 0.10744874385127605, 'min_weight_fraction_leaf': 0.1668624266634947}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.068, 'min_75_125': 0.0}</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>{'max_depth': 30, 'max_features': 0.6253435869874414, 'min_samples_split': 0.6115469562406923, 'min_weight_fraction_leaf': 0.2761574265800265}</t>
-  </si>
-  <si>
-    <t>{'percScore_75_125': 0.334, 'coef_var_50_100': 0.291, 'var_10_50': 0.202, 'std_class_10_50': 0.071, 'var_50_100': 0.067, 'max_75_125': 0.036}</t>
+    <t>{'max_depth': 9, 'max_features': 0.6238987751903682, 'min_samples_split': 0.3088295784834149, 'min_weight_fraction_leaf': 0.2883517800865225}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 1.0, 'max_50_100': 0.0, 'coef_var_75_125': 0.0}</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>{'max_depth': 72, 'max_features': 0.546268391181506, 'min_samples_split': 0.5939309651571191, 'min_weight_fraction_leaf': 0.2531267707551698}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 1.0}</t>
+    <t>{'max_depth': 16, 'max_features': 0.6023363717182599, 'min_samples_split': 0.2726818168476908, 'min_weight_fraction_leaf': 0.29288072625039896}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.224}</t>
   </si>
   <si>
     <t>R1_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 30, 'max_features': 0.2118317137976518, 'min_samples_split': 0.3199131296425818, 'min_weight_fraction_leaf': 0.0625599915072591}</t>
+    <t>{'max_depth': 77, 'max_features': 0.32303279782564676, 'min_samples_split': 0.047945823455016724, 'min_weight_fraction_leaf': 0.13692180662760944}</t>
+  </si>
+  <si>
+    <t>{'mean_10_25': 0.0, 'max_75_125': 0.0}</t>
   </si>
   <si>
     <t>R1_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 40, 'max_features': 0.4813791277061054, 'min_samples_split': 0.5822097410680916, 'min_weight_fraction_leaf': 0.10518068279889409}</t>
+    <t>{'max_depth': 10, 'max_features': 0.5680732808087623, 'min_samples_split': 0.15117101593278387, 'min_weight_fraction_leaf': 0.11371303794076387}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.212, 'coef_var_75_125': 0.149, 'var_75_125': 0.0, 'std_class_10_25': 0.0, 'var_10_25': 0.0, 'mean_10_50': 0.0, 'var_25_75': 0.0, 'coef_var_50_100': 0.0}</t>
   </si>
   <si>
     <t>R1_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 52, 'max_features': 0.6301625585807643, 'min_samples_split': 0.28742370616141016, 'min_weight_fraction_leaf': 0.07026253691818973}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.713, 'mean_75_125': 0.194, 'percScore_10_25': 0.093}</t>
+    <t>{'max_depth': 57, 'max_features': 0.3981814367857087, 'min_samples_split': 0.17970267588772446, 'min_weight_fraction_leaf': 0.12151712622726979}</t>
+  </si>
+  <si>
+    <t>{'kurt_50_100': 0.527, 'coef_var_50_100': 0.199, 'max_50_100': 0.084, 'max_75_125': 0.08, 'var_75_125': 0.0, 'mean_10_25': 0.0, 'min_10_25': 0.0, 'mean_10_50': 0.0, 'max_10_50': 0.0, 'coef_var_10_50': 0.0, 'std_class_25_75': 0.0, 'var_25_75': 0.0, 'skew_50_100': 0.0, 'var_50_100': 0.0, 'score_at_perc_75_125': 0.0, 'coef_var_75_125': 0.0, 'min_75_125': 0.0}</t>
   </si>
   <si>
     <t>R2_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 66, 'max_features': 0.3817369585753972, 'min_samples_split': 0.18830272884350674, 'min_weight_fraction_leaf': 0.10206801666762622}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.835, 'var_25_75': 0.165}</t>
+    <t>{'max_depth': 32, 'max_features': 0.18693139504058853, 'min_samples_split': 0.25100891022036786, 'min_weight_fraction_leaf': 0.10492016719566244}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.109, 'min_75_125': 0.0}</t>
   </si>
   <si>
     <t>R2_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 55, 'max_features': 0.36053805635708075, 'min_samples_split': 0.5132605802693794, 'min_weight_fraction_leaf': 0.14432882706065897}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.587, 'std_class_10_50': 0.162, 'var_10_50': 0.114, 'max_10_25': 0.071, 'coef_var_50_100': 0.063, 'std_class_75_125': 0.002}</t>
+    <t>{'max_depth': 72, 'max_features': 0.6048874342582607, 'min_samples_split': 0.27398748444022636, 'min_weight_fraction_leaf': 0.14633942731859234}</t>
+  </si>
+  <si>
+    <t>{'var_10_50': 0.059, 'max_75_125': 0.021, 'var_75_125': 0.0, 'kurt_10_25': 0.0, 'kurt_25_75': 0.0, 'var_25_75': 0.0, 'coef_var_50_100': 0.0, 'entropy_75_125': 0.0}</t>
   </si>
   <si>
     <t>R2_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 48, 'max_features': 0.3998073355402277, 'min_samples_split': 0.24376283051090872, 'min_weight_fraction_leaf': 0.1401085413283572}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 0.679, 'coef_var_50_100': 0.194, 'var_10_50': 0.127}</t>
+    <t>{'max_depth': 77, 'max_features': 0.19580779022355352, 'min_samples_split': 0.09201233649958983, 'min_weight_fraction_leaf': 0.11308795162898538}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.075}</t>
   </si>
   <si>
     <t>R3_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 88, 'max_features': 0.9079833777413864, 'min_samples_split': 0.14437171066148546, 'min_weight_fraction_leaf': 0.10112670075879215}</t>
+    <t>{'max_depth': 86, 'max_features': 0.6327148427983367, 'min_samples_split': 0.3836039918749895, 'min_weight_fraction_leaf': 0.10043034365844683}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.697, 'var_25_75': 0.0}</t>
   </si>
   <si>
     <t>R3_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 94, 'max_features': 0.7074261135533392, 'min_samples_split': 0.07646629563867828, 'min_weight_fraction_leaf': 0.3005636382067134}</t>
+    <t>{'max_depth': 33, 'max_features': 0.9929397544301073, 'min_samples_split': 0.8426975478926614, 'min_weight_fraction_leaf': 0.30812689493788836}</t>
+  </si>
+  <si>
+    <t>{'percScore_25_75': 0.0, 'std_class_25_75': 0.0, 'kurt_50_100': 0.0}</t>
   </si>
   <si>
     <t>R3_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 94, 'max_features': 0.49104241858680864, 'min_samples_split': 0.2784906725494586, 'min_weight_fraction_leaf': 0.2281962160489534}</t>
-  </si>
-  <si>
-    <t>{'max_50_100': 0.601, 'max_75_125': 0.219, 'kurt_75_125': 0.181}</t>
+    <t>{'max_depth': 52, 'max_features': 0.49212990811787827, 'min_samples_split': 0.009425463818980788, 'min_weight_fraction_leaf': 0.208578167772759}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 1.0, 'max_75_125': 0.0}</t>
   </si>
 </sst>
 </file>
@@ -533,7 +548,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>0.59</v>
+      </c>
+      <c r="D2">
         <v>0.67</v>
-      </c>
-      <c r="D2">
-        <v>0.69</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -592,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -600,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0.61</v>
@@ -609,10 +624,10 @@
         <v>0.65</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,19 +635,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D5">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,19 +655,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D6">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,19 +675,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D7">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,19 +695,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="D8">
         <v>0.67</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,19 +715,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="D9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,19 +735,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="D10">
         <v>0.87</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,19 +755,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>0.69</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,19 +775,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="D13">
         <v>0.53</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,19 +815,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="D14">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,19 +835,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="D15">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>0.56999999999999995</v>
@@ -849,20 +864,20 @@
         <v>0.97</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>AVERAGE(C2:C16)</f>
-        <v>0.64800000000000002</v>
+        <v>0.63733333333333342</v>
       </c>
       <c r="D18">
         <f>AVERAGE(D2:D16)</f>
-        <v>0.67600000000000016</v>
+        <v>0.70266666666666677</v>
       </c>
     </row>
   </sheetData>
